--- a/static/2025-08-04 FINAL_TEMPLATE.xlsx
+++ b/static/2025-08-04 FINAL_TEMPLATE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dksh-my.sharepoint.com/personal/khunakorn_l_dksh_com/Documents/9999-99-99 GitRepo/dksh-raw-tds-parser/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{14474B77-AD1B-4F1F-862F-76BD62442BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64F24897-CC4C-4547-BFF3-0D81A9C695EE}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="8_{14474B77-AD1B-4F1F-862F-76BD62442BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6079EB7-7BED-423C-85BF-25916DC67FAC}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="8" xr2:uid="{D4FF3B06-7D21-456E-96A2-0F98008C5B33}"/>
   </bookViews>
@@ -4004,7 +4004,7 @@
     <t>31 PDF - 52 PROD</t>
   </si>
   <si>
-    <t>34 PDF - 70 PROD</t>
+    <t>34 PDF - 69 PROD</t>
   </si>
 </sst>
 </file>
@@ -4485,7 +4485,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4874,6 +4874,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -17650,11 +17653,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFCB60B3-AE3F-4949-ABBD-27B1AB1FFE3D}">
-  <dimension ref="B2:M20"/>
+  <dimension ref="B2:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16:M16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -17670,9 +17671,10 @@
     <col min="11" max="11" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="F2" s="131" t="s">
         <v>21</v>
       </c>
@@ -17690,7 +17692,7 @@
       </c>
       <c r="M2" s="131"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="F3" s="125" t="s">
         <v>1084</v>
       </c>
@@ -17708,7 +17710,7 @@
       </c>
       <c r="M3" s="126"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="112"/>
       <c r="C4" s="112"/>
       <c r="F4" s="99" t="s">
@@ -17736,7 +17738,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E5" s="101" t="s">
         <v>1053</v>
       </c>
@@ -17761,9 +17763,11 @@
       <c r="L5" s="113" t="s">
         <v>1054</v>
       </c>
-      <c r="M5" s="127"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M5" s="127">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E6" s="101" t="s">
         <v>1056</v>
       </c>
@@ -17788,9 +17792,11 @@
       <c r="L6" s="102" t="s">
         <v>1064</v>
       </c>
-      <c r="M6" s="128"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M6" s="128">
+        <v>0.78400000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E7" s="101" t="s">
         <v>1058</v>
       </c>
@@ -17819,7 +17825,7 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E8" s="106" t="s">
         <v>1059</v>
       </c>
@@ -17847,9 +17853,16 @@
       <c r="L8" s="107" t="s">
         <v>1060</v>
       </c>
-      <c r="M8" s="127"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M8" s="127">
+        <f>SUM(M5:M7)</f>
+        <v>6.3640000000000008</v>
+      </c>
+      <c r="N8" s="152">
+        <f>SUM(G8,I8,K8,M8)</f>
+        <v>17.45505</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E9" s="151" t="s">
         <v>1086</v>
       </c>
@@ -17871,9 +17884,16 @@
         <v>0.10095192307692308</v>
       </c>
       <c r="L9" s="110"/>
-      <c r="M9" s="128"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M9" s="128">
+        <f>M8/69</f>
+        <v>9.2231884057971031E-2</v>
+      </c>
+      <c r="N9" s="153">
+        <f>N8/177</f>
+        <v>9.8616101694915248E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E10" s="118" t="s">
         <v>1087</v>
       </c>
@@ -17901,9 +17921,16 @@
       <c r="L10" s="119" t="s">
         <v>1060</v>
       </c>
-      <c r="M10" s="130"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M10" s="130">
+        <f>M9*1.3</f>
+        <v>0.11990144927536234</v>
+      </c>
+      <c r="N10" s="154">
+        <f>N9*1.3</f>
+        <v>0.12820093220338982</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E12" s="113" t="s">
         <v>1069</v>
       </c>
@@ -17924,7 +17951,7 @@
       </c>
       <c r="M12" s="137"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E13" s="102" t="s">
         <v>1070</v>
       </c>
@@ -17940,10 +17967,12 @@
         <v>16190000</v>
       </c>
       <c r="K13" s="138"/>
-      <c r="L13" s="138"/>
+      <c r="L13" s="138">
+        <v>19590000</v>
+      </c>
       <c r="M13" s="138"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E14" s="117" t="s">
         <v>1071</v>
       </c>
@@ -17964,11 +17993,11 @@
       <c r="K14" s="132"/>
       <c r="L14" s="139">
         <f>L13-L12</f>
-        <v>-18070000</v>
+        <v>1520000</v>
       </c>
       <c r="M14" s="140"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E15" s="113" t="s">
         <v>1072</v>
       </c>
@@ -17989,7 +18018,7 @@
       </c>
       <c r="M15" s="137"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E16" s="102" t="s">
         <v>1073</v>
       </c>
@@ -18005,7 +18034,9 @@
         <v>884550</v>
       </c>
       <c r="K16" s="138"/>
-      <c r="L16" s="138"/>
+      <c r="L16" s="138">
+        <v>1120000</v>
+      </c>
       <c r="M16" s="138"/>
     </row>
     <row r="17" spans="5:13" x14ac:dyDescent="0.3">
@@ -18029,7 +18060,7 @@
       <c r="K17" s="132"/>
       <c r="L17" s="139">
         <f>L16-L15</f>
-        <v>-1010000</v>
+        <v>110000</v>
       </c>
       <c r="M17" s="140"/>
     </row>
@@ -18070,7 +18101,9 @@
         <v>58.39</v>
       </c>
       <c r="K19" s="134"/>
-      <c r="L19" s="134"/>
+      <c r="L19" s="134">
+        <v>68.849999999999994</v>
+      </c>
       <c r="M19" s="134"/>
     </row>
     <row r="20" spans="5:13" x14ac:dyDescent="0.3">
@@ -18094,7 +18127,7 @@
       <c r="K20" s="149"/>
       <c r="L20" s="135">
         <f>L19-L18</f>
-        <v>-63.63</v>
+        <v>5.2199999999999918</v>
       </c>
       <c r="M20" s="136"/>
     </row>

--- a/static/2025-08-04 FINAL_TEMPLATE.xlsx
+++ b/static/2025-08-04 FINAL_TEMPLATE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dksh-my.sharepoint.com/personal/khunakorn_l_dksh_com/Documents/9999-99-99 GitRepo/dksh-raw-tds-parser/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="8_{14474B77-AD1B-4F1F-862F-76BD62442BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6079EB7-7BED-423C-85BF-25916DC67FAC}"/>
+  <xr:revisionPtr revIDLastSave="258" documentId="8_{14474B77-AD1B-4F1F-862F-76BD62442BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9335D4A-B657-4492-93E3-E180AA433EBB}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="8" xr2:uid="{D4FF3B06-7D21-456E-96A2-0F98008C5B33}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="11" xr2:uid="{D4FF3B06-7D21-456E-96A2-0F98008C5B33}"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE" sheetId="6" r:id="rId1"/>
@@ -24,9 +24,10 @@
     <sheet name="COST2" sheetId="11" r:id="rId9"/>
     <sheet name="_" sheetId="10" r:id="rId10"/>
     <sheet name="FIG1" sheetId="9" r:id="rId11"/>
+    <sheet name="FIG2" sheetId="13" r:id="rId12"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'PickList Ref SFDC'!$A$1:$AT$1</definedName>
@@ -484,7 +485,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3278" uniqueCount="1090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3280" uniqueCount="1092">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -4006,6 +4007,12 @@
   <si>
     <t>34 PDF - 69 PROD</t>
   </si>
+  <si>
+    <t>SALES FORCE</t>
+  </si>
+  <si>
+    <t>GATE'S API</t>
+  </si>
 </sst>
 </file>
 
@@ -4014,7 +4021,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -4485,7 +4492,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4795,6 +4802,13 @@
     <xf numFmtId="2" fontId="18" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4807,47 +4821,52 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -4862,21 +4881,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -5337,6 +5349,1359 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>Create 120 to 150 words product description from the given data </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>148591</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104816</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>169546</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>22859</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="What Is an API? Definition, Meaning and Examples | Glossary">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{037055C4-3BC6-074A-9EF6-8EA83644B04C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="21945" r="20598"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8682991" y="828716"/>
+          <a:ext cx="1249680" cy="1192488"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>369570</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>143405</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>302895</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>60959</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F04BE9C1-0FA7-5F13-8839-4240E9FB134B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2807970" y="867305"/>
+          <a:ext cx="1152525" cy="830049"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>72410</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>78105</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC85C41D-F29D-D974-8A0E-5C1D856D9194}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4800600" y="1339235"/>
+          <a:ext cx="3848101" cy="5695"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>445770</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>150495</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B933D210-F7A5-BA14-7995-5D46B8E174A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4103370" y="1160145"/>
+          <a:ext cx="628650" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Call API</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>287655</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE55220F-1DF7-47D4-B34C-C456B50A29FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3945255" y="2085975"/>
+          <a:ext cx="4760595" cy="3253740"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>255270</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>36725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>192405</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>137159</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6938C77B-041C-4E49-AD78-7B5A461FEC12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2693670" y="4923050"/>
+          <a:ext cx="1156335" cy="828144"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>354330</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>36195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>316230</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E9061F5-9972-4746-839C-BA6E208B387F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7669530" y="2569845"/>
+          <a:ext cx="571500" cy="459105"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Return JSON</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>340994</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>16534</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>16110</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52EA489C-0418-5543-6557-247E40DC35D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16800194" y="6531634"/>
+          <a:ext cx="6802755" cy="4523951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>78104</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>20956</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>401955</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F301D86A-F912-122A-CC74-A4EADDA9347C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4954904" y="563881"/>
+          <a:ext cx="3371851" cy="1703069"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>requestBody = {</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    'productName':'Sugar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t> Candy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    'manufacturer':'Willy Wonka',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    'businessLine':'FBI',</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+            <a:cs typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    'documentation':</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        [*MultipleFiles(PDF)only],</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    'APIKey':'xxx',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    'webSearch':True/False</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+            <a:cs typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>325755</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0382E368-2651-4337-810D-06FB127DD0C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4592955" y="3088005"/>
+          <a:ext cx="3651885" cy="2846070"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>responseBody = {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    'inputProductName':'xxx',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    'inputBusinessLine':'xxx'</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    'industryCluster':'xxx',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    'description':'xxx',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    'application':['a','b','c'],</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    'function':['a','b','c'],</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    'physicalForm':'xxx',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    'composition':['a','b','c'],</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    'dosage':'xxx',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    'certificate':['a','b','c'],</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    'claim':['a','b','c'],</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    'CASNumber':'xxx',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    'INCIName':'xxx',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    'probabilityAccuracy':0.59,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    ....</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+            <a:cs typeface="72 Monospace" panose="020B0509030603020204" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>497205</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>24765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{148B2584-4CC9-5FB7-F15B-3766562FC78B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5374005" y="748665"/>
+          <a:ext cx="2569845" cy="832485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>177165</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>112394</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>249177</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>121919</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21" descr="ChatGPT - Wikipedia">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44B20ACE-968A-20B6-863B-6EA52943029E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11759565" y="655319"/>
+          <a:ext cx="1291212" cy="1276350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>253365</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C10A29F1-3283-419B-ABDD-6F64712704F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10006965" y="1276350"/>
+          <a:ext cx="1461135" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>278130</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CF355D7-66EA-4308-A880-7DEA520D8A27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10031730" y="1524000"/>
+          <a:ext cx="1379220" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>26669</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>132046</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>497918</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>116380</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E862FED3-B55A-003E-282B-AC0CDC6C993F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10999469" y="4113496"/>
+          <a:ext cx="2909649" cy="708234"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>407670</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC4F3035-E654-4642-BF49-CA2E473ED42A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12599670" y="1981200"/>
+          <a:ext cx="20955" cy="1981200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>255270</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Straight Arrow Connector 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF50B11A-5FB1-498C-A511-882BEDF5B6C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="12447270" y="2017395"/>
+          <a:ext cx="30480" cy="1906905"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>331470</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA225D1E-283C-4AC0-AD0A-DEC08A03B19D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11913870" y="4678680"/>
+          <a:ext cx="1344930" cy="655320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Search Application</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Search Function</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Search Composition</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>340995</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rectangle 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57C0E8D3-96B6-42BA-BA3C-CDB9A671639A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11879580" y="2678430"/>
+          <a:ext cx="1263015" cy="283845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>WebSearch = True</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5836,8 +7201,8 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6220,6 +7585,413 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFBDFB3A-AB79-4D1B-8E2F-B93EFAFBA9FF}">
+  <dimension ref="E3:W38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E3" s="161" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F3" s="155"/>
+      <c r="G3" s="108"/>
+      <c r="O3" s="161" t="s">
+        <v>1091</v>
+      </c>
+      <c r="P3" s="155"/>
+      <c r="Q3" s="155"/>
+      <c r="R3" s="155"/>
+      <c r="S3" s="155"/>
+      <c r="T3" s="155"/>
+      <c r="U3" s="155"/>
+      <c r="V3" s="155"/>
+      <c r="W3" s="108"/>
+    </row>
+    <row r="4" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E4" s="156"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="103"/>
+      <c r="O4" s="156"/>
+      <c r="P4" s="157"/>
+      <c r="Q4" s="157"/>
+      <c r="R4" s="157"/>
+      <c r="S4" s="157"/>
+      <c r="T4" s="157"/>
+      <c r="U4" s="157"/>
+      <c r="V4" s="157"/>
+      <c r="W4" s="103"/>
+    </row>
+    <row r="5" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E5" s="156"/>
+      <c r="F5" s="157"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="157"/>
+      <c r="I5" s="157"/>
+      <c r="O5" s="156"/>
+      <c r="P5" s="157"/>
+      <c r="Q5" s="157"/>
+      <c r="R5" s="157"/>
+      <c r="S5" s="157"/>
+      <c r="T5" s="157"/>
+      <c r="U5" s="157"/>
+      <c r="V5" s="157"/>
+      <c r="W5" s="103"/>
+    </row>
+    <row r="6" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E6" s="156"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="157"/>
+      <c r="O6" s="156"/>
+      <c r="P6" s="157"/>
+      <c r="Q6" s="157"/>
+      <c r="R6" s="157"/>
+      <c r="S6" s="157"/>
+      <c r="T6" s="157"/>
+      <c r="U6" s="157"/>
+      <c r="V6" s="157"/>
+      <c r="W6" s="103"/>
+    </row>
+    <row r="7" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E7" s="156"/>
+      <c r="F7" s="157"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="157"/>
+      <c r="I7" s="157"/>
+      <c r="O7" s="156"/>
+      <c r="P7" s="157"/>
+      <c r="Q7" s="157"/>
+      <c r="R7" s="157"/>
+      <c r="S7" s="157"/>
+      <c r="T7" s="157"/>
+      <c r="U7" s="157"/>
+      <c r="V7" s="157"/>
+      <c r="W7" s="103"/>
+    </row>
+    <row r="8" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E8" s="156"/>
+      <c r="F8" s="157"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="157"/>
+      <c r="I8" s="157"/>
+      <c r="O8" s="156"/>
+      <c r="P8" s="157"/>
+      <c r="Q8" s="157"/>
+      <c r="R8" s="157"/>
+      <c r="S8" s="157"/>
+      <c r="T8" s="157"/>
+      <c r="U8" s="157"/>
+      <c r="V8" s="157"/>
+      <c r="W8" s="103"/>
+    </row>
+    <row r="9" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E9" s="156"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="157"/>
+      <c r="I9" s="157"/>
+      <c r="O9" s="156"/>
+      <c r="P9" s="157"/>
+      <c r="Q9" s="157"/>
+      <c r="R9" s="157"/>
+      <c r="S9" s="157"/>
+      <c r="T9" s="157"/>
+      <c r="U9" s="157"/>
+      <c r="V9" s="157"/>
+      <c r="W9" s="103"/>
+    </row>
+    <row r="10" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E10" s="156"/>
+      <c r="F10" s="157"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="157"/>
+      <c r="I10" s="157"/>
+      <c r="O10" s="156"/>
+      <c r="P10" s="157"/>
+      <c r="Q10" s="157"/>
+      <c r="R10" s="157"/>
+      <c r="S10" s="157"/>
+      <c r="T10" s="157"/>
+      <c r="U10" s="157"/>
+      <c r="V10" s="157"/>
+      <c r="W10" s="103"/>
+    </row>
+    <row r="11" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E11" s="156"/>
+      <c r="F11" s="157"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="157"/>
+      <c r="I11" s="157"/>
+      <c r="O11" s="156"/>
+      <c r="P11" s="157"/>
+      <c r="Q11" s="157"/>
+      <c r="R11" s="157"/>
+      <c r="S11" s="157"/>
+      <c r="T11" s="157"/>
+      <c r="U11" s="157"/>
+      <c r="V11" s="157"/>
+      <c r="W11" s="103"/>
+    </row>
+    <row r="12" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E12" s="156"/>
+      <c r="F12" s="157"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="157"/>
+      <c r="I12" s="157"/>
+      <c r="O12" s="156"/>
+      <c r="P12" s="157"/>
+      <c r="Q12" s="157"/>
+      <c r="R12" s="157"/>
+      <c r="S12" s="157"/>
+      <c r="T12" s="157"/>
+      <c r="U12" s="157"/>
+      <c r="V12" s="157"/>
+      <c r="W12" s="103"/>
+    </row>
+    <row r="13" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E13" s="156"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="157"/>
+      <c r="I13" s="157"/>
+      <c r="O13" s="158"/>
+      <c r="P13" s="159"/>
+      <c r="Q13" s="159"/>
+      <c r="R13" s="159"/>
+      <c r="S13" s="159"/>
+      <c r="T13" s="159"/>
+      <c r="U13" s="159"/>
+      <c r="V13" s="159"/>
+      <c r="W13" s="160"/>
+    </row>
+    <row r="14" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E14" s="156"/>
+      <c r="F14" s="157"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="157"/>
+      <c r="I14" s="157"/>
+    </row>
+    <row r="15" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E15" s="156"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="157"/>
+      <c r="I15" s="157"/>
+    </row>
+    <row r="16" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E16" s="156"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+    </row>
+    <row r="17" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E17" s="156"/>
+      <c r="F17" s="157"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="157"/>
+      <c r="I17" s="157"/>
+    </row>
+    <row r="18" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E18" s="156"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="157"/>
+      <c r="I18" s="157"/>
+    </row>
+    <row r="19" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E19" s="156"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="157"/>
+      <c r="I19" s="157"/>
+    </row>
+    <row r="20" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E20" s="156"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="157"/>
+      <c r="I20" s="157"/>
+    </row>
+    <row r="21" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E21" s="156"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="157"/>
+      <c r="I21" s="157"/>
+    </row>
+    <row r="22" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E22" s="156"/>
+      <c r="F22" s="157"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="157"/>
+      <c r="I22" s="157"/>
+    </row>
+    <row r="23" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E23" s="156"/>
+      <c r="F23" s="157"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="157"/>
+      <c r="I23" s="157"/>
+      <c r="S23" s="154"/>
+      <c r="T23" s="155"/>
+      <c r="U23" s="155"/>
+      <c r="V23" s="155"/>
+      <c r="W23" s="108"/>
+    </row>
+    <row r="24" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E24" s="156"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="157"/>
+      <c r="I24" s="157"/>
+      <c r="S24" s="156"/>
+      <c r="T24" s="157"/>
+      <c r="U24" s="157"/>
+      <c r="V24" s="157"/>
+      <c r="W24" s="103"/>
+    </row>
+    <row r="25" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E25" s="156"/>
+      <c r="F25" s="157"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="157"/>
+      <c r="I25" s="157"/>
+      <c r="S25" s="156"/>
+      <c r="T25" s="157"/>
+      <c r="U25" s="157"/>
+      <c r="V25" s="157"/>
+      <c r="W25" s="103"/>
+    </row>
+    <row r="26" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E26" s="156"/>
+      <c r="F26" s="157"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="157"/>
+      <c r="I26" s="157"/>
+      <c r="S26" s="156"/>
+      <c r="T26" s="157"/>
+      <c r="U26" s="157"/>
+      <c r="V26" s="157"/>
+      <c r="W26" s="103"/>
+    </row>
+    <row r="27" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E27" s="156"/>
+      <c r="F27" s="157"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="157"/>
+      <c r="I27" s="157"/>
+      <c r="S27" s="156"/>
+      <c r="T27" s="157"/>
+      <c r="U27" s="157"/>
+      <c r="V27" s="157"/>
+      <c r="W27" s="103"/>
+    </row>
+    <row r="28" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E28" s="156"/>
+      <c r="F28" s="157"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="157"/>
+      <c r="I28" s="157"/>
+      <c r="S28" s="156"/>
+      <c r="T28" s="157"/>
+      <c r="U28" s="157"/>
+      <c r="V28" s="157"/>
+      <c r="W28" s="103"/>
+    </row>
+    <row r="29" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E29" s="156"/>
+      <c r="F29" s="157"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="157"/>
+      <c r="I29" s="157"/>
+      <c r="S29" s="156"/>
+      <c r="T29" s="157"/>
+      <c r="U29" s="157"/>
+      <c r="V29" s="157"/>
+      <c r="W29" s="103"/>
+    </row>
+    <row r="30" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E30" s="156"/>
+      <c r="F30" s="157"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="157"/>
+      <c r="I30" s="157"/>
+      <c r="S30" s="158"/>
+      <c r="T30" s="159"/>
+      <c r="U30" s="159"/>
+      <c r="V30" s="159"/>
+      <c r="W30" s="160"/>
+    </row>
+    <row r="31" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E31" s="156"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="157"/>
+      <c r="I31" s="157"/>
+    </row>
+    <row r="32" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E32" s="156"/>
+      <c r="F32" s="157"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="157"/>
+      <c r="I32" s="157"/>
+    </row>
+    <row r="33" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E33" s="158"/>
+      <c r="F33" s="159"/>
+      <c r="G33" s="160"/>
+      <c r="H33" s="157"/>
+      <c r="I33" s="157"/>
+    </row>
+    <row r="34" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E34" s="157"/>
+      <c r="F34" s="157"/>
+      <c r="G34" s="157"/>
+      <c r="H34" s="157"/>
+      <c r="I34" s="157"/>
+    </row>
+    <row r="35" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E35" s="157"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="157"/>
+      <c r="H35" s="157"/>
+      <c r="I35" s="157"/>
+    </row>
+    <row r="36" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E36" s="157"/>
+      <c r="F36" s="157"/>
+      <c r="G36" s="157"/>
+      <c r="H36" s="157"/>
+      <c r="I36" s="157"/>
+    </row>
+    <row r="37" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E37" s="157"/>
+      <c r="F37" s="157"/>
+      <c r="G37" s="157"/>
+      <c r="H37" s="157"/>
+      <c r="I37" s="157"/>
+    </row>
+    <row r="38" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E38" s="157"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="157"/>
+      <c r="H38" s="157"/>
+      <c r="I38" s="157"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A45B4D-6966-4B8B-AC04-EF9EAA6E16F4}">
   <dimension ref="A1:E14"/>
@@ -6434,8 +8206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB06F2E0-C0BA-4840-9B6A-C2A7CB53243B}">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11434,7 +13206,7 @@
         <v>56</v>
       </c>
       <c r="Z2" s="20"/>
-      <c r="AB2" s="123" t="s">
+      <c r="AB2" s="130" t="s">
         <v>60</v>
       </c>
       <c r="AC2" s="21" t="s">
@@ -11524,7 +13296,7 @@
         <v>64</v>
       </c>
       <c r="Z3" s="20"/>
-      <c r="AB3" s="123"/>
+      <c r="AB3" s="130"/>
       <c r="AC3" s="8" t="s">
         <v>80</v>
       </c>
@@ -11610,7 +13382,7 @@
         <v>64</v>
       </c>
       <c r="Z4" s="20"/>
-      <c r="AB4" s="123"/>
+      <c r="AB4" s="130"/>
       <c r="AC4" s="8" t="s">
         <v>99</v>
       </c>
@@ -11702,7 +13474,7 @@
         <v>64</v>
       </c>
       <c r="Z5" s="20"/>
-      <c r="AB5" s="123"/>
+      <c r="AB5" s="130"/>
       <c r="AC5" s="8" t="s">
         <v>116</v>
       </c>
@@ -11789,7 +13561,7 @@
         <v>131</v>
       </c>
       <c r="AA6" s="28"/>
-      <c r="AB6" s="123"/>
+      <c r="AB6" s="130"/>
       <c r="AC6" s="8" t="s">
         <v>132</v>
       </c>
@@ -11879,7 +13651,7 @@
         <v>64</v>
       </c>
       <c r="Z7" s="20"/>
-      <c r="AB7" s="123"/>
+      <c r="AB7" s="130"/>
       <c r="AC7" s="8" t="s">
         <v>81</v>
       </c>
@@ -11965,7 +13737,7 @@
         <v>56</v>
       </c>
       <c r="Z8" s="20"/>
-      <c r="AB8" s="123"/>
+      <c r="AB8" s="130"/>
       <c r="AC8" s="8" t="s">
         <v>163</v>
       </c>
@@ -12051,7 +13823,7 @@
         <v>56</v>
       </c>
       <c r="Z9" s="20"/>
-      <c r="AB9" s="123"/>
+      <c r="AB9" s="130"/>
       <c r="AC9" s="8" t="s">
         <v>179</v>
       </c>
@@ -12135,7 +13907,7 @@
         <v>56</v>
       </c>
       <c r="Z10" s="20"/>
-      <c r="AB10" s="123"/>
+      <c r="AB10" s="130"/>
       <c r="AC10" s="8" t="s">
         <v>194</v>
       </c>
@@ -12221,11 +13993,11 @@
         <v>79</v>
       </c>
       <c r="Z11" s="20"/>
-      <c r="AB11" s="123"/>
+      <c r="AB11" s="130"/>
       <c r="AC11" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="AD11" s="124" t="s">
+      <c r="AD11" s="131" t="s">
         <v>211</v>
       </c>
       <c r="AF11" s="8" t="s">
@@ -12305,11 +14077,11 @@
         <v>240</v>
       </c>
       <c r="Z12" s="20"/>
-      <c r="AB12" s="123"/>
+      <c r="AB12" s="130"/>
       <c r="AC12" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="AD12" s="124"/>
+      <c r="AD12" s="131"/>
       <c r="AF12" s="8" t="s">
         <v>223</v>
       </c>
@@ -12391,11 +14163,11 @@
         <v>148</v>
       </c>
       <c r="Z13" s="20"/>
-      <c r="AB13" s="123"/>
+      <c r="AB13" s="130"/>
       <c r="AC13" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="AD13" s="124"/>
+      <c r="AD13" s="131"/>
       <c r="AF13" s="8" t="s">
         <v>144</v>
       </c>
@@ -12473,11 +14245,11 @@
         <v>148</v>
       </c>
       <c r="Z14" s="20"/>
-      <c r="AB14" s="123"/>
+      <c r="AB14" s="130"/>
       <c r="AC14" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="AD14" s="124"/>
+      <c r="AD14" s="131"/>
       <c r="AF14" s="8" t="s">
         <v>254</v>
       </c>
@@ -12555,11 +14327,11 @@
         <v>148</v>
       </c>
       <c r="Z15" s="20"/>
-      <c r="AB15" s="123"/>
+      <c r="AB15" s="130"/>
       <c r="AC15" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="AD15" s="124"/>
+      <c r="AD15" s="131"/>
       <c r="AF15" s="8" t="s">
         <v>267</v>
       </c>
@@ -12637,11 +14409,11 @@
         <v>148</v>
       </c>
       <c r="Z16" s="20"/>
-      <c r="AB16" s="123"/>
+      <c r="AB16" s="130"/>
       <c r="AC16" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="AD16" s="124"/>
+      <c r="AD16" s="131"/>
       <c r="AF16" s="8" t="s">
         <v>175</v>
       </c>
@@ -12719,11 +14491,11 @@
         <v>148</v>
       </c>
       <c r="Z17" s="20"/>
-      <c r="AB17" s="123"/>
+      <c r="AB17" s="130"/>
       <c r="AC17" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="AD17" s="124"/>
+      <c r="AD17" s="131"/>
       <c r="AF17" s="8" t="s">
         <v>126</v>
       </c>
@@ -12809,11 +14581,11 @@
         <v>98</v>
       </c>
       <c r="Z18" s="20"/>
-      <c r="AB18" s="123"/>
+      <c r="AB18" s="130"/>
       <c r="AC18" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="AD18" s="124"/>
+      <c r="AD18" s="131"/>
       <c r="AF18" s="8" t="s">
         <v>206</v>
       </c>
@@ -12883,11 +14655,11 @@
         <v>98</v>
       </c>
       <c r="Z19" s="20"/>
-      <c r="AB19" s="123"/>
+      <c r="AB19" s="130"/>
       <c r="AC19" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="AD19" s="124"/>
+      <c r="AD19" s="131"/>
       <c r="AF19" s="8" t="s">
         <v>321</v>
       </c>
@@ -12943,11 +14715,11 @@
         <v>98</v>
       </c>
       <c r="Z20" s="20"/>
-      <c r="AB20" s="123"/>
+      <c r="AB20" s="130"/>
       <c r="AC20" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="AD20" s="124"/>
+      <c r="AD20" s="131"/>
       <c r="AF20" s="8" t="s">
         <v>334</v>
       </c>
@@ -12996,11 +14768,11 @@
         <v>98</v>
       </c>
       <c r="Z21" s="44"/>
-      <c r="AB21" s="123"/>
+      <c r="AB21" s="130"/>
       <c r="AC21" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="AD21" s="124"/>
+      <c r="AD21" s="131"/>
       <c r="AF21" s="8" t="s">
         <v>235</v>
       </c>
@@ -13051,11 +14823,11 @@
       <c r="Z22" s="45" t="s">
         <v>353</v>
       </c>
-      <c r="AB22" s="123"/>
+      <c r="AB22" s="130"/>
       <c r="AC22" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="AD22" s="124"/>
+      <c r="AD22" s="131"/>
       <c r="AF22" s="8" t="s">
         <v>218</v>
       </c>
@@ -13106,11 +14878,11 @@
       <c r="Z23" s="47" t="s">
         <v>353</v>
       </c>
-      <c r="AB23" s="123"/>
+      <c r="AB23" s="130"/>
       <c r="AC23" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AD23" s="124"/>
+      <c r="AD23" s="131"/>
       <c r="AF23" s="8" t="s">
         <v>365</v>
       </c>
@@ -17307,18 +19079,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F2" s="125" t="s">
+      <c r="F2" s="132" t="s">
         <v>1078</v>
       </c>
-      <c r="G2" s="126"/>
-      <c r="H2" s="125" t="s">
+      <c r="G2" s="133"/>
+      <c r="H2" s="132" t="s">
         <v>1065</v>
       </c>
-      <c r="I2" s="126"/>
-      <c r="J2" s="125" t="s">
+      <c r="I2" s="133"/>
+      <c r="J2" s="132" t="s">
         <v>1067</v>
       </c>
-      <c r="K2" s="126"/>
+      <c r="K2" s="133"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="112"/>
@@ -17655,7 +19427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFCB60B3-AE3F-4949-ABBD-27B1AB1FFE3D}">
   <dimension ref="B2:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -17675,40 +19447,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="F2" s="131" t="s">
+      <c r="F2" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131" t="s">
+      <c r="G2" s="139"/>
+      <c r="H2" s="139" t="s">
         <v>975</v>
       </c>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131" t="s">
+      <c r="I2" s="139"/>
+      <c r="J2" s="139" t="s">
         <v>995</v>
       </c>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131" t="s">
+      <c r="K2" s="139"/>
+      <c r="L2" s="139" t="s">
         <v>981</v>
       </c>
-      <c r="M2" s="131"/>
+      <c r="M2" s="139"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="F3" s="125" t="s">
+      <c r="F3" s="132" t="s">
         <v>1084</v>
       </c>
-      <c r="G3" s="126"/>
-      <c r="H3" s="125" t="s">
+      <c r="G3" s="133"/>
+      <c r="H3" s="132" t="s">
         <v>1088</v>
       </c>
-      <c r="I3" s="126"/>
-      <c r="J3" s="125" t="s">
+      <c r="I3" s="133"/>
+      <c r="J3" s="132" t="s">
         <v>1085</v>
       </c>
-      <c r="K3" s="126"/>
-      <c r="L3" s="125" t="s">
+      <c r="K3" s="133"/>
+      <c r="L3" s="132" t="s">
         <v>1089</v>
       </c>
-      <c r="M3" s="126"/>
+      <c r="M3" s="133"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="112"/>
@@ -17745,25 +19517,25 @@
       <c r="F5" s="113" t="s">
         <v>1054</v>
       </c>
-      <c r="G5" s="127">
+      <c r="G5" s="123">
         <v>0.3</v>
       </c>
       <c r="H5" s="113" t="s">
         <v>1054</v>
       </c>
-      <c r="I5" s="127">
+      <c r="I5" s="123">
         <v>0.31</v>
       </c>
       <c r="J5" s="113" t="s">
         <v>1054</v>
       </c>
-      <c r="K5" s="127">
+      <c r="K5" s="123">
         <v>0.25</v>
       </c>
       <c r="L5" s="113" t="s">
         <v>1054</v>
       </c>
-      <c r="M5" s="127">
+      <c r="M5" s="123">
         <v>0.34</v>
       </c>
     </row>
@@ -17774,25 +19546,25 @@
       <c r="F6" s="102" t="s">
         <v>1064</v>
       </c>
-      <c r="G6" s="128">
+      <c r="G6" s="124">
         <v>0.71</v>
       </c>
       <c r="H6" s="102" t="s">
         <v>1064</v>
       </c>
-      <c r="I6" s="128">
+      <c r="I6" s="124">
         <v>1.0063</v>
       </c>
       <c r="J6" s="102" t="s">
         <v>1064</v>
       </c>
-      <c r="K6" s="128">
+      <c r="K6" s="124">
         <v>0.37475000000000003</v>
       </c>
       <c r="L6" s="102" t="s">
         <v>1064</v>
       </c>
-      <c r="M6" s="128">
+      <c r="M6" s="124">
         <v>0.78400000000000003</v>
       </c>
     </row>
@@ -17803,25 +19575,25 @@
       <c r="F7" s="105" t="s">
         <v>1068</v>
       </c>
-      <c r="G7" s="129">
+      <c r="G7" s="125">
         <v>2.2799999999999998</v>
       </c>
       <c r="H7" s="105" t="s">
         <v>1068</v>
       </c>
-      <c r="I7" s="129">
+      <c r="I7" s="125">
         <v>3.86</v>
       </c>
       <c r="J7" s="105" t="s">
         <v>1068</v>
       </c>
-      <c r="K7" s="129">
+      <c r="K7" s="125">
         <v>2</v>
       </c>
       <c r="L7" s="105" t="s">
         <v>1068</v>
       </c>
-      <c r="M7" s="129">
+      <c r="M7" s="125">
         <v>5.24</v>
       </c>
     </row>
@@ -17832,63 +19604,63 @@
       <c r="F8" s="107" t="s">
         <v>1060</v>
       </c>
-      <c r="G8" s="127">
+      <c r="G8" s="123">
         <f>SUM(G5:G7)</f>
         <v>3.29</v>
       </c>
       <c r="H8" s="107" t="s">
         <v>1060</v>
       </c>
-      <c r="I8" s="127">
+      <c r="I8" s="123">
         <f>SUM(I5:I7)</f>
         <v>5.1762999999999995</v>
       </c>
       <c r="J8" s="107" t="s">
         <v>1060</v>
       </c>
-      <c r="K8" s="127">
+      <c r="K8" s="123">
         <f>SUM(K5:K7)</f>
         <v>2.6247500000000001</v>
       </c>
       <c r="L8" s="107" t="s">
         <v>1060</v>
       </c>
-      <c r="M8" s="127">
+      <c r="M8" s="123">
         <f>SUM(M5:M7)</f>
         <v>6.3640000000000008</v>
       </c>
-      <c r="N8" s="152">
+      <c r="N8" s="127">
         <f>SUM(G8,I8,K8,M8)</f>
         <v>17.45505</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="E9" s="151" t="s">
+      <c r="E9" s="109" t="s">
         <v>1086</v>
       </c>
       <c r="F9" s="110" t="s">
         <v>1060</v>
       </c>
-      <c r="G9" s="128">
+      <c r="G9" s="124">
         <f>G8/30</f>
         <v>0.10966666666666666</v>
       </c>
       <c r="H9" s="110"/>
-      <c r="I9" s="128">
+      <c r="I9" s="124">
         <f>I8/52</f>
         <v>9.954423076923076E-2</v>
       </c>
       <c r="J9" s="110"/>
-      <c r="K9" s="128">
+      <c r="K9" s="124">
         <f>K8/26</f>
         <v>0.10095192307692308</v>
       </c>
       <c r="L9" s="110"/>
-      <c r="M9" s="128">
+      <c r="M9" s="124">
         <f>M8/69</f>
         <v>9.2231884057971031E-2</v>
       </c>
-      <c r="N9" s="153">
+      <c r="N9" s="128">
         <f>N8/177</f>
         <v>9.8616101694915248E-2</v>
       </c>
@@ -17900,32 +19672,32 @@
       <c r="F10" s="119" t="s">
         <v>1060</v>
       </c>
-      <c r="G10" s="130">
+      <c r="G10" s="126">
         <f>G9*1.3</f>
         <v>0.14256666666666667</v>
       </c>
       <c r="H10" s="119" t="s">
         <v>1060</v>
       </c>
-      <c r="I10" s="130">
+      <c r="I10" s="126">
         <f>I9*1.3</f>
         <v>0.12940749999999998</v>
       </c>
       <c r="J10" s="119" t="s">
         <v>1060</v>
       </c>
-      <c r="K10" s="130">
+      <c r="K10" s="126">
         <f>K9*1.3</f>
         <v>0.13123750000000001</v>
       </c>
       <c r="L10" s="119" t="s">
         <v>1060</v>
       </c>
-      <c r="M10" s="130">
+      <c r="M10" s="126">
         <f>M9*1.3</f>
         <v>0.11990144927536234</v>
       </c>
-      <c r="N10" s="154">
+      <c r="N10" s="129">
         <f>N9*1.3</f>
         <v>0.12820093220338982</v>
       </c>
@@ -17934,165 +19706,165 @@
       <c r="E12" s="113" t="s">
         <v>1069</v>
       </c>
-      <c r="F12" s="141">
+      <c r="F12" s="149">
         <v>11420000</v>
       </c>
-      <c r="G12" s="137"/>
-      <c r="H12" s="150">
+      <c r="G12" s="140"/>
+      <c r="H12" s="147">
         <v>12790000</v>
       </c>
-      <c r="I12" s="137"/>
-      <c r="J12" s="137">
+      <c r="I12" s="140"/>
+      <c r="J12" s="140">
         <v>15440000</v>
       </c>
-      <c r="K12" s="137"/>
-      <c r="L12" s="137">
+      <c r="K12" s="140"/>
+      <c r="L12" s="140">
         <v>18070000</v>
       </c>
-      <c r="M12" s="137"/>
+      <c r="M12" s="140"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E13" s="102" t="s">
         <v>1070</v>
       </c>
-      <c r="F13" s="142">
+      <c r="F13" s="148">
         <v>12790000</v>
       </c>
-      <c r="G13" s="138"/>
-      <c r="H13" s="138">
+      <c r="G13" s="141"/>
+      <c r="H13" s="141">
         <v>14980000</v>
       </c>
-      <c r="I13" s="138"/>
-      <c r="J13" s="138">
+      <c r="I13" s="141"/>
+      <c r="J13" s="141">
         <v>16190000</v>
       </c>
-      <c r="K13" s="138"/>
-      <c r="L13" s="138">
+      <c r="K13" s="141"/>
+      <c r="L13" s="141">
         <v>19590000</v>
       </c>
-      <c r="M13" s="138"/>
+      <c r="M13" s="141"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E14" s="117" t="s">
         <v>1071</v>
       </c>
-      <c r="F14" s="143">
+      <c r="F14" s="145">
         <f>F13-F12</f>
         <v>1370000</v>
       </c>
-      <c r="G14" s="132"/>
-      <c r="H14" s="143">
+      <c r="G14" s="146"/>
+      <c r="H14" s="145">
         <f>H13-H12</f>
         <v>2190000</v>
       </c>
-      <c r="I14" s="132"/>
-      <c r="J14" s="143">
+      <c r="I14" s="146"/>
+      <c r="J14" s="145">
         <f>J13-J12</f>
         <v>750000</v>
       </c>
-      <c r="K14" s="132"/>
-      <c r="L14" s="139">
+      <c r="K14" s="146"/>
+      <c r="L14" s="142">
         <f>L13-L12</f>
         <v>1520000</v>
       </c>
-      <c r="M14" s="140"/>
+      <c r="M14" s="143"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E15" s="113" t="s">
         <v>1072</v>
       </c>
-      <c r="F15" s="141">
+      <c r="F15" s="149">
         <v>615980</v>
       </c>
-      <c r="G15" s="137"/>
-      <c r="H15" s="142">
+      <c r="G15" s="140"/>
+      <c r="H15" s="148">
         <v>716530</v>
       </c>
-      <c r="I15" s="138"/>
-      <c r="J15" s="137">
+      <c r="I15" s="141"/>
+      <c r="J15" s="140">
         <v>837830</v>
       </c>
-      <c r="K15" s="137"/>
-      <c r="L15" s="137">
+      <c r="K15" s="140"/>
+      <c r="L15" s="140">
         <v>1010000</v>
       </c>
-      <c r="M15" s="137"/>
+      <c r="M15" s="140"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E16" s="102" t="s">
         <v>1073</v>
       </c>
-      <c r="F16" s="142">
+      <c r="F16" s="148">
         <v>716530</v>
       </c>
-      <c r="G16" s="138"/>
-      <c r="H16" s="138">
+      <c r="G16" s="141"/>
+      <c r="H16" s="141">
         <v>797990</v>
       </c>
-      <c r="I16" s="138"/>
-      <c r="J16" s="138">
+      <c r="I16" s="141"/>
+      <c r="J16" s="141">
         <v>884550</v>
       </c>
-      <c r="K16" s="138"/>
-      <c r="L16" s="138">
+      <c r="K16" s="141"/>
+      <c r="L16" s="141">
         <v>1120000</v>
       </c>
-      <c r="M16" s="138"/>
+      <c r="M16" s="141"/>
     </row>
     <row r="17" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E17" s="117" t="s">
         <v>1074</v>
       </c>
-      <c r="F17" s="143">
+      <c r="F17" s="145">
         <f>F16-F15</f>
         <v>100550</v>
       </c>
-      <c r="G17" s="132"/>
-      <c r="H17" s="143">
+      <c r="G17" s="146"/>
+      <c r="H17" s="145">
         <f>H16-H15</f>
         <v>81460</v>
       </c>
-      <c r="I17" s="132"/>
-      <c r="J17" s="143">
+      <c r="I17" s="146"/>
+      <c r="J17" s="145">
         <f>J16-J15</f>
         <v>46720</v>
       </c>
-      <c r="K17" s="132"/>
-      <c r="L17" s="139">
+      <c r="K17" s="146"/>
+      <c r="L17" s="142">
         <f>L16-L15</f>
         <v>110000</v>
       </c>
-      <c r="M17" s="140"/>
+      <c r="M17" s="143"/>
     </row>
     <row r="18" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E18" s="113" t="s">
         <v>1075</v>
       </c>
-      <c r="F18" s="144">
+      <c r="F18" s="150">
         <v>48.92</v>
       </c>
-      <c r="G18" s="145"/>
-      <c r="H18" s="133">
+      <c r="G18" s="151"/>
+      <c r="H18" s="144">
         <v>51.2</v>
       </c>
-      <c r="I18" s="133"/>
-      <c r="J18" s="133">
+      <c r="I18" s="144"/>
+      <c r="J18" s="144">
         <v>56.39</v>
       </c>
-      <c r="K18" s="133"/>
-      <c r="L18" s="133">
+      <c r="K18" s="144"/>
+      <c r="L18" s="144">
         <v>63.63</v>
       </c>
-      <c r="M18" s="133"/>
+      <c r="M18" s="144"/>
     </row>
     <row r="19" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E19" s="102" t="s">
         <v>1076</v>
       </c>
-      <c r="F19" s="146">
+      <c r="F19" s="152">
         <v>51.2</v>
       </c>
-      <c r="G19" s="147"/>
+      <c r="G19" s="153"/>
       <c r="H19" s="134">
         <v>55.06</v>
       </c>
@@ -18110,21 +19882,21 @@
       <c r="E20" s="117" t="s">
         <v>1077</v>
       </c>
-      <c r="F20" s="148">
+      <c r="F20" s="137">
         <f>F19-F18</f>
         <v>2.2800000000000011</v>
       </c>
-      <c r="G20" s="149"/>
-      <c r="H20" s="148">
+      <c r="G20" s="138"/>
+      <c r="H20" s="137">
         <f>H19-H18</f>
         <v>3.8599999999999994</v>
       </c>
-      <c r="I20" s="149"/>
-      <c r="J20" s="148">
+      <c r="I20" s="138"/>
+      <c r="J20" s="137">
         <f>J19-J18</f>
         <v>2</v>
       </c>
-      <c r="K20" s="149"/>
+      <c r="K20" s="138"/>
       <c r="L20" s="135">
         <f>L19-L18</f>
         <v>5.2199999999999918</v>
@@ -18133,6 +19905,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="J20:K20"/>
@@ -18149,34 +19949,6 @@
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
